--- a/data/trans_dic/P2C_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,7; 51,27</t>
+          <t>38,87; 50,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,79; 69,59</t>
+          <t>56,54; 69,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,37; 53,55</t>
+          <t>39,47; 53,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,49</t>
+          <t>4,84; 9,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,94; 60,86</t>
+          <t>47,3; 60,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,34; 85,68</t>
+          <t>73,22; 86,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>66,46; 79,61</t>
+          <t>66,14; 78,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,97; 13,83</t>
+          <t>9,29; 14,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,68; 53,22</t>
+          <t>43,69; 52,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66,3; 75,5</t>
+          <t>66,38; 75,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,6; 63,94</t>
+          <t>53,8; 63,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 10,84</t>
+          <t>7,49; 10,92</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,58; 55,21</t>
+          <t>40,47; 55,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,48; 65,42</t>
+          <t>51,67; 64,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,37; 55,96</t>
+          <t>42,85; 55,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 8,47</t>
+          <t>3,91; 8,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,95; 71,3</t>
+          <t>58,64; 71,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>78,29; 88,51</t>
+          <t>78,47; 88,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,02; 76,63</t>
+          <t>64,68; 76,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 15,34</t>
+          <t>9,27; 15,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,58; 61,42</t>
+          <t>52,34; 62,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>66,35; 75,36</t>
+          <t>65,85; 74,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>56,2; 65,2</t>
+          <t>56,27; 65,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 10,46</t>
+          <t>7,09; 10,7</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,75; 44,93</t>
+          <t>34,42; 44,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,29; 54,24</t>
+          <t>44,42; 54,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,44; 51,01</t>
+          <t>40,13; 51,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 11,4</t>
+          <t>2,11; 11,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,36; 64,85</t>
+          <t>47,22; 65,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,41; 66,58</t>
+          <t>52,37; 65,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,88; 58,37</t>
+          <t>39,51; 57,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 14,04</t>
+          <t>6,42; 13,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,99; 48,23</t>
+          <t>39,52; 48,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48,35; 57,22</t>
+          <t>48,14; 56,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,48; 51,32</t>
+          <t>42,05; 51,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 11,05</t>
+          <t>2,97; 11,13</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,79; 37,53</t>
+          <t>30,72; 37,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,5; 50,66</t>
+          <t>43,54; 51,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,58; 49,75</t>
+          <t>41,83; 49,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,6; 12,41</t>
+          <t>8,31; 12,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,01; 61,05</t>
+          <t>51,45; 60,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,93; 81,65</t>
+          <t>74,37; 81,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,49; 66,71</t>
+          <t>57,96; 67,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,72; 63,01</t>
+          <t>11,76; 64,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,9; 45,5</t>
+          <t>40,14; 45,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,59; 62,16</t>
+          <t>56,76; 62,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,63; 56,26</t>
+          <t>50,13; 56,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,79; 46,4</t>
+          <t>10,67; 42,35</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,15; 40,42</t>
+          <t>27,3; 41,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,36; 51,35</t>
+          <t>40,43; 51,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,93; 46,36</t>
+          <t>35,74; 46,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,73; 10,57</t>
+          <t>5,57; 10,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>43,68; 53,4</t>
+          <t>43,74; 54,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,74; 65,8</t>
+          <t>57,25; 65,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,19; 57,8</t>
+          <t>47,66; 57,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 14,62</t>
+          <t>9,1; 14,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,6; 47,88</t>
+          <t>39,91; 48,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,8; 59,5</t>
+          <t>52,67; 59,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>44,24; 51,35</t>
+          <t>44,29; 51,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,5</t>
+          <t>8,62; 12,49</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,94; 22,88</t>
+          <t>8,98; 23,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,08; 25,25</t>
+          <t>9,85; 25,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,74; 33,98</t>
+          <t>16,45; 35,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 8,19</t>
+          <t>1,4; 8,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,35; 33,49</t>
+          <t>27,64; 33,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,87; 43,26</t>
+          <t>35,76; 43,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,57; 33,57</t>
+          <t>26,22; 33,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,47; 14,94</t>
+          <t>10,57; 14,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,18; 31,72</t>
+          <t>25,96; 31,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>33,51; 40,05</t>
+          <t>33,44; 39,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>26,14; 32,58</t>
+          <t>26,15; 32,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 12,22</t>
+          <t>8,58; 12,26</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,74; 39,4</t>
+          <t>34,58; 39,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>47,28; 51,56</t>
+          <t>47,11; 51,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>41,72; 46,51</t>
+          <t>41,83; 46,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 8,9</t>
+          <t>5,89; 8,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>43,97; 48,17</t>
+          <t>43,92; 48,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>59,73; 63,65</t>
+          <t>59,48; 63,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,16; 53,31</t>
+          <t>49,15; 53,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,67; 33,84</t>
+          <t>11,62; 32,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40,46; 43,44</t>
+          <t>40,4; 43,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>54,44; 57,46</t>
+          <t>54,47; 57,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>46,6; 49,76</t>
+          <t>46,44; 49,64</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,52; 22,88</t>
+          <t>9,58; 21,36</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>126279</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>162272</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>101091</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>35637</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>111372</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>165539</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>150454</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>51394</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>237652</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>327811</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>251545</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>87031</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>109535; 142688</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>144306; 176972</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>86488; 116902</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>24457; 48106</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>97603; 125581</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>151403; 177866</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>136730; 162567</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41576; 65313</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>213272; 258614</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>306685; 347135</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>229099; 269527</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>71389; 104017</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>94465</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>158793</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>113104</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26596</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>145637</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>198995</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>173066</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>46319</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>240102</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>357788</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>286170</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>72915</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>79534; 109840</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>139654; 175332</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>98014; 127810</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17699; 37596</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>131051; 160070</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>186110; 209747</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>157541; 186112</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35473; 57406</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>219826; 261028</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>334172; 379182</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>265793; 307772</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>59201; 89331</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>133019</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>202209</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>151417</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>45134</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>71099</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>109387</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>58631</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16373</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>204118</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>311596</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>210048</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>61507</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>116784; 152374</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>181648; 223570</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>132613; 170201</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14123; 76461</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>59542; 82246</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>95807; 120610</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>48410; 70991</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10710; 22756</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>183930; 225577</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>284896; 335935</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>190506; 232051</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24795; 92955</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>266383</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>367792</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>291663</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>106257</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>265429</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>406623</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>327409</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>300658</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>531812</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>774414</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>619072</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>406914</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>238562; 293280</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>339481; 397644</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>266390; 316341</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>86013; 127016</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>241791; 285554</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>387984; 426187</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>302908; 350328</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>115051; 627293</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>500338; 568826</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>738720; 810856</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>581203; 649718</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>214710; 852494</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>70056</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>146857</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>153932</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37541</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>198457</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>361698</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>263725</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>102916</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>268513</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>508555</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>417657</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>140457</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>56562; 85055</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>129530; 165760</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>134302; 172995</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26476; 50141</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>177454; 219987</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>335449; 385665</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>238342; 286174</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>76532; 124376</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>244604; 296555</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>477368; 536293</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>387920; 450178</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>113431; 164350</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15802</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17320</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>26073</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8499</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>265631</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>304717</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>218339</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>94359</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>281433</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>322037</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>244412</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>102858</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9596; 24910</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10129; 26351</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>17248; 36791</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3362; 19721</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>240094; 291412</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>277243; 333762</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>191308; 241735</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>80509; 112852</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>253193; 310921</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>293573; 350623</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>218235; 271250</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>85989; 122842</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1696</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2433</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>706004</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1055242</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>837279</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>259663</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1057625</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1546959</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1191625</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>612019</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1763629</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2602201</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2028904</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>871682</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>659868; 744868</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1006826; 1101905</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>793044; 881641</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>198912; 296680</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1010367; 1111121</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1492817; 1596405</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1142699; 1240786</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>415848; 1153448</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1700276; 1828759</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2531178; 2677487</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1960258; 2095273</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>666224; 1485559</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P2C_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
